--- a/DF_Trait_diagnosticity.xlsx
+++ b/DF_Trait_diagnosticity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rougier/Dropbox/Paper_STT/Experiment_Pilot_study_inferredTrait/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rougier/Documents/GitHub/STT_PilotInfTrait/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6037D9-0729-894C-91D2-6EED94E72BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B722C-332E-394C-8B17-2C92962CD3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="24620" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,12 +307,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -338,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -356,10 +362,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,11 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,93 +713,93 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>5.3023255813953503</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>86</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3.9454545454545502</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>4.5106382978723403</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>4.2888888888888896</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>85</v>
@@ -789,436 +807,436 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>4.0444444444444398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.2291666666666696</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>4.24444444444444</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.2545454545454504</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.2888888888888896</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.2909090909090901</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4.38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4.3863636363636402</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>4.4705882352941204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.5106382978723403</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>4.5384615384615401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B17" s="7">
         <v>4.6111111111111098</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>4.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>5.7843137254902004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>4.38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4.87755102040816</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8">
+        <v>14</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>4.3863636363636402</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>3.9454545454545502</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>5.08</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>4.92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5.6956521739130404</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>5.3409090909090899</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>4.87755102040816</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>5.37254901960784</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>4.2909090909090901</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>5.6086956521739104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>5.5319148936170199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>5.3965517241379297</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
       <c r="B21">
-        <v>5.0208333333333304</v>
+        <v>4.9387755102040796</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5.0208333333333304</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>5.3636363636363598</v>
+        <v>5.0384615384615401</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>5.4761904761904798</v>
+        <v>5.08</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>86</v>
@@ -1226,51 +1244,51 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>4.2545454545454504</v>
+        <v>5.0816326530612201</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>4.9387755102040796</v>
+        <v>5.11320754716981</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>53</v>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1293,248 +1311,238 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>4.2291666666666696</v>
+        <v>5.3023255813953503</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>4.24444444444444</v>
+        <v>5.3409090909090899</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>5.0384615384615401</v>
+        <v>5.3636363636363598</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>4.8</v>
+        <v>5.37254901960784</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>5.11320754716981</v>
+        <v>5.3965517241379297</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>5.0816326530612201</v>
+        <v>5.4761904761904798</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5.5319148936170199</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>4.0444444444444398</v>
+        <v>5.6086956521739104</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>4.5384615384615401</v>
+        <v>5.6956521739130404</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>4.4705882352941204</v>
+        <v>5.7843137254902004</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G38" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Low_diag"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="trait_implying"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
       <sortCondition ref="D1:D38"/>
     </sortState>
